--- a/xlsx_files/spond(4).xlsx
+++ b/xlsx_files/spond(4).xlsx
@@ -10,27 +10,27 @@
     <sheet name="For import" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">'For import'!$A$5:$C$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">'For import'!$A$5:$C$18</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="34">
-  <si>
-    <t>Trening uke 8</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="27">
+  <si>
+    <t>Trening søndag uke 9</t>
   </si>
   <si>
     <t>v.ps-2</t>
   </si>
   <si>
-    <t>søn. 23. februar 12:00 - 14:00</t>
+    <t>søn. 2. mars 13:00 - 15:00</t>
   </si>
   <si>
     <t>Bergen Golfsenter</t>
   </si>
   <si>
-    <t>Deltar (6)</t>
+    <t>Deltar (2)</t>
   </si>
   <si>
     <t/>
@@ -39,70 +39,49 @@
     <t>Navn</t>
   </si>
   <si>
-    <t>Mathias Hong</t>
+    <t>Sander Selnes</t>
+  </si>
+  <si>
+    <t>Sara Sørholt</t>
+  </si>
+  <si>
+    <t>Ikke svart (3)</t>
   </si>
   <si>
     <t>Øyvind Øyri</t>
   </si>
   <si>
-    <t>sanne lunde</t>
-  </si>
-  <si>
-    <t>Tobias Nilsen</t>
-  </si>
-  <si>
-    <t>Ine Amalie Fjær</t>
-  </si>
-  <si>
-    <t>Thomas Barth</t>
-  </si>
-  <si>
-    <t>Ikke svart (1)</t>
-  </si>
-  <si>
     <t>Golf Bot</t>
   </si>
   <si>
-    <t>Kommer ikke (8)</t>
+    <t>Irina Karen Astorga</t>
+  </si>
+  <si>
+    <t>Kommer ikke (6)</t>
   </si>
   <si>
     <t>Begrunnelse</t>
   </si>
   <si>
-    <t>Vebjørn Molvik Nilsen</t>
-  </si>
-  <si>
-    <t>Steffen Synnevåg</t>
-  </si>
-  <si>
-    <t>Oda Fossdal</t>
-  </si>
-  <si>
-    <t>Emily Skeie</t>
-  </si>
-  <si>
-    <t>På hytta 🫠</t>
-  </si>
-  <si>
-    <t>Hanne Folvik</t>
-  </si>
-  <si>
-    <t>Besøk</t>
-  </si>
-  <si>
-    <t>Sander Bjørnsen</t>
-  </si>
-  <si>
-    <t>Vera Ellingsen</t>
-  </si>
-  <si>
-    <t>Skal på hytten med hele familien💔💔💔</t>
-  </si>
-  <si>
-    <t>Emilie Heggen</t>
-  </si>
-  <si>
-    <t>Reiser bort :/</t>
+    <t>Martin Arnesen</t>
+  </si>
+  <si>
+    <t>Elle Wiig Eide</t>
+  </si>
+  <si>
+    <t>Magne Skrede</t>
+  </si>
+  <si>
+    <t>Ole Vaaler</t>
+  </si>
+  <si>
+    <t>Brynjar Gjerding</t>
+  </si>
+  <si>
+    <t>Håvard Hjelmeland</t>
+  </si>
+  <si>
+    <t>Passer bikkje</t>
   </si>
   <si>
     <t>Status</t>
@@ -533,7 +512,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
       <alignment horizontal="left"/>
@@ -619,26 +598,20 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" zoomScale="125"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="20.3359375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="29.796875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="18.375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.14453125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -682,59 +655,61 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="27" t="s">
+    <row r="10">
+      <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="35" t="s">
+      <c r="B10" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="27" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="27" t="s">
+    <row r="13">
+      <c r="A13" s="35" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="35" t="s">
+    <row r="14">
+      <c r="A14" s="27" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="6" t="s">
+    <row r="16">
+      <c r="A16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="6" t="s">
+    <row r="17">
+      <c r="A17" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="27" t="s">
+      <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="B18" s="28"/>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="5" t="s">
+      <c r="A19" s="35" t="s">
         <v>16</v>
       </c>
+      <c r="B19" s="36"/>
     </row>
     <row r="20">
       <c r="A20" s="27" t="s">
@@ -760,36 +735,6 @@
       </c>
       <c r="B23" s="36" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="28" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="36"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="28" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="36" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -798,8 +743,8 @@
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A16:B16"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -807,14 +752,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="15.671875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="17.8359375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="16.08203125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -838,179 +783,129 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="13" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="n" s="37">
-        <v>45705.67754420139</v>
+        <v>45715.672748275465</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="13" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="n" s="38">
-        <v>45705.9486496875</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="n" s="39">
-        <v>45705.94922928241</v>
+        <v>45715.691690300926</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="13" t="s">
-        <v>31</v>
+      <c r="A9" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C9" t="n" s="40">
-        <v>45705.95048868056</v>
-      </c>
     </row>
     <row r="10">
-      <c r="A10" s="13" t="s">
-        <v>31</v>
+      <c r="A10" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C10" t="n" s="41">
-        <v>45706.05268547454</v>
-      </c>
     </row>
     <row r="11">
-      <c r="A11" s="13" t="s">
-        <v>31</v>
+      <c r="A11" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C11" t="n" s="42">
-        <v>45706.84416162037</v>
-      </c>
     </row>
     <row r="13">
-      <c r="A13" s="15" t="s">
-        <v>32</v>
+      <c r="A13" s="14" t="s">
+        <v>26</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="C13" t="n" s="39">
+        <v>45715.69069456019</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="n" s="40">
+        <v>45715.84607467592</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="14" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C15" t="n" s="43">
-        <v>45705.62360935185</v>
+      <c r="C15" t="n" s="41">
+        <v>45715.875224375</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="14" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C16" t="n" s="44">
-        <v>45705.62900613426</v>
+      <c r="C16" t="n" s="42">
+        <v>45716.573870636574</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="14" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C17" t="n" s="45">
-        <v>45705.639455625</v>
+      <c r="C17" t="n" s="43">
+        <v>45716.582301724535</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="14" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C18" t="n" s="46">
-        <v>45705.94939761574</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" t="n" s="47">
-        <v>45705.950538969904</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="n" s="48">
-        <v>45706.465814641204</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="n" s="49">
-        <v>45707.54189734954</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" t="n" s="50">
-        <v>45707.54724506944</v>
+      <c r="C18" t="n" s="44">
+        <v>45716.6381984375</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A5:C22"/>
+  <autoFilter ref="A5:C18"/>
   <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>

--- a/xlsx_files/spond(4).xlsx
+++ b/xlsx_files/spond(4).xlsx
@@ -10,21 +10,21 @@
     <sheet name="For import" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">'For import'!$A$5:$C$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">'For import'!$A$5:$C$19</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="27">
-  <si>
-    <t>Trening søndag uke 9</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="28">
+  <si>
+    <t>Trening uke 10</t>
   </si>
   <si>
     <t>v.ps-2</t>
   </si>
   <si>
-    <t>søn. 2. mars 13:00 - 15:00</t>
+    <t>søn. 9. mars 12:00 - 14:00</t>
   </si>
   <si>
     <t>Bergen Golfsenter</t>
@@ -39,51 +39,51 @@
     <t>Navn</t>
   </si>
   <si>
+    <t>Sara Sørholt</t>
+  </si>
+  <si>
+    <t>Håvard Hjelmeland</t>
+  </si>
+  <si>
+    <t>Venteliste (1)</t>
+  </si>
+  <si>
+    <t>Ole Vaaler</t>
+  </si>
+  <si>
+    <t>Ikke svart (5)</t>
+  </si>
+  <si>
+    <t>Irina Karen Astorga</t>
+  </si>
+  <si>
+    <t>Golf Bot</t>
+  </si>
+  <si>
+    <t>Elle Wiig Eide</t>
+  </si>
+  <si>
+    <t>Brynjar Gjerding</t>
+  </si>
+  <si>
+    <t>Magne Skrede</t>
+  </si>
+  <si>
+    <t>Kommer ikke (3)</t>
+  </si>
+  <si>
+    <t>Begrunnelse</t>
+  </si>
+  <si>
+    <t>Martin Arnesen</t>
+  </si>
+  <si>
+    <t>Øyvind Øyri</t>
+  </si>
+  <si>
     <t>Sander Selnes</t>
   </si>
   <si>
-    <t>Sara Sørholt</t>
-  </si>
-  <si>
-    <t>Ikke svart (3)</t>
-  </si>
-  <si>
-    <t>Øyvind Øyri</t>
-  </si>
-  <si>
-    <t>Golf Bot</t>
-  </si>
-  <si>
-    <t>Irina Karen Astorga</t>
-  </si>
-  <si>
-    <t>Kommer ikke (6)</t>
-  </si>
-  <si>
-    <t>Begrunnelse</t>
-  </si>
-  <si>
-    <t>Martin Arnesen</t>
-  </si>
-  <si>
-    <t>Elle Wiig Eide</t>
-  </si>
-  <si>
-    <t>Magne Skrede</t>
-  </si>
-  <si>
-    <t>Ole Vaaler</t>
-  </si>
-  <si>
-    <t>Brynjar Gjerding</t>
-  </si>
-  <si>
-    <t>Håvard Hjelmeland</t>
-  </si>
-  <si>
-    <t>Passer bikkje</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>Kommer</t>
+  </si>
+  <si>
+    <t>På venteliste</t>
   </si>
   <si>
     <t>Ikke svart</t>
@@ -512,7 +515,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
       <alignment horizontal="left"/>
@@ -596,15 +599,13 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" zoomScale="125"/>
   </sheetViews>
@@ -656,15 +657,15 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="7" t="s">
         <v>6</v>
       </c>
     </row>
@@ -673,78 +674,87 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="35" t="s">
+    <row r="14">
+      <c r="A14" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="27" t="s">
+      <c r="B14" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="27" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="5" t="s">
+    <row r="17">
+      <c r="A17" s="35" t="s">
         <v>13</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="28"/>
+        <v>14</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="36"/>
+        <v>15</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="28"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="35" t="s">
+      <c r="B22" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="36"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="27" t="s">
+    </row>
+    <row r="24">
+      <c r="A24" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="28"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="35" t="s">
+      <c r="B24" s="28"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="36" t="s">
+      <c r="B25" s="36"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="27" t="s">
         <v>21</v>
       </c>
+      <c r="B26" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A22:B22"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -752,7 +762,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125"/>
   </sheetViews>
@@ -800,7 +810,7 @@
         <v>7</v>
       </c>
       <c r="C6" t="n" s="37">
-        <v>45715.672748275465</v>
+        <v>45722.499065578704</v>
       </c>
     </row>
     <row r="7">
@@ -811,101 +821,95 @@
         <v>8</v>
       </c>
       <c r="C7" t="n" s="38">
-        <v>45715.691690300926</v>
+        <v>45722.52277570602</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="16" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>11</v>
+      <c r="C9" t="n" s="39">
+        <v>45723.53673673611</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>12</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="13">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="15" t="s">
         <v>26</v>
       </c>
       <c r="B13" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C13" t="n" s="39">
-        <v>45715.69069456019</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="14" t="s">
+    </row>
+    <row r="15">
+      <c r="A15" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B15" s="12" t="s">
         <v>16</v>
-      </c>
-      <c r="C14" t="n" s="40">
-        <v>45715.84607467592</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" t="n" s="41">
-        <v>45715.875224375</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" t="n" s="42">
-        <v>45716.573870636574</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C17" t="n" s="43">
-        <v>45716.582301724535</v>
+      <c r="C17" t="n" s="40">
+        <v>45722.60010289352</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C18" t="n" s="44">
-        <v>45716.6381984375</v>
+      <c r="C18" t="n" s="41">
+        <v>45722.72724579861</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="n" s="42">
+        <v>45724.29490712963</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A5:C18"/>
+  <autoFilter ref="A5:C19"/>
   <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>

--- a/xlsx_files/spond(4).xlsx
+++ b/xlsx_files/spond(4).xlsx
@@ -10,27 +10,27 @@
     <sheet name="For import" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">'For import'!$A$5:$C$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">'For import'!$A$5:$C$26</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="28">
-  <si>
-    <t>Trening uke 10</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="34">
+  <si>
+    <t>Trening uke 11</t>
   </si>
   <si>
     <t>v.ps-2</t>
   </si>
   <si>
-    <t>søn. 9. mars 12:00 - 14:00</t>
+    <t>søn. 16. mars 12:00 - 14:00</t>
   </si>
   <si>
     <t>Bergen Golfsenter</t>
   </si>
   <si>
-    <t>Deltar (2)</t>
+    <t>Deltar (14)</t>
   </si>
   <si>
     <t/>
@@ -39,49 +39,70 @@
     <t>Navn</t>
   </si>
   <si>
-    <t>Sara Sørholt</t>
-  </si>
-  <si>
-    <t>Håvard Hjelmeland</t>
-  </si>
-  <si>
-    <t>Venteliste (1)</t>
-  </si>
-  <si>
-    <t>Ole Vaaler</t>
-  </si>
-  <si>
-    <t>Ikke svart (5)</t>
-  </si>
-  <si>
-    <t>Irina Karen Astorga</t>
+    <t>Steffen Synnevåg</t>
+  </si>
+  <si>
+    <t>Markus Grytten</t>
+  </si>
+  <si>
+    <t>Tobias Nilsen</t>
+  </si>
+  <si>
+    <t>Sander Bjørnsen</t>
+  </si>
+  <si>
+    <t>Oda Fossdal</t>
+  </si>
+  <si>
+    <t>Eskil Trosdahl</t>
+  </si>
+  <si>
+    <t>Birk Narvestad</t>
+  </si>
+  <si>
+    <t>Thomas Barth</t>
+  </si>
+  <si>
+    <t>sanne lunde</t>
+  </si>
+  <si>
+    <t>Mathias Hong</t>
+  </si>
+  <si>
+    <t>Hanne Folvik</t>
+  </si>
+  <si>
+    <t>Vera Ellingsen</t>
+  </si>
+  <si>
+    <t>Silje Louise Lindøe</t>
+  </si>
+  <si>
+    <t>Emilie Heggen</t>
+  </si>
+  <si>
+    <t>Ikke svart (1)</t>
   </si>
   <si>
     <t>Golf Bot</t>
   </si>
   <si>
-    <t>Elle Wiig Eide</t>
-  </si>
-  <si>
-    <t>Brynjar Gjerding</t>
-  </si>
-  <si>
-    <t>Magne Skrede</t>
-  </si>
-  <si>
-    <t>Kommer ikke (3)</t>
+    <t>Kommer ikke (4)</t>
   </si>
   <si>
     <t>Begrunnelse</t>
   </si>
   <si>
-    <t>Martin Arnesen</t>
-  </si>
-  <si>
-    <t>Øyvind Øyri</t>
-  </si>
-  <si>
-    <t>Sander Selnes</t>
+    <t>Vebjørn Molvik Nilsen</t>
+  </si>
+  <si>
+    <t>Ine Amalie Fjær</t>
+  </si>
+  <si>
+    <t>Julie Rjånes</t>
+  </si>
+  <si>
+    <t>Emily Skeie</t>
   </si>
   <si>
     <t>Status</t>
@@ -91,9 +112,6 @@
   </si>
   <si>
     <t>Kommer</t>
-  </si>
-  <si>
-    <t>På venteliste</t>
   </si>
   <si>
     <t>Ikke svart</t>
@@ -515,7 +533,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
       <alignment horizontal="left"/>
@@ -599,19 +617,31 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" zoomScale="125"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="18.375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="20.3359375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.14453125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -656,105 +686,132 @@
         <v>8</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" s="27" t="s">
+        <v>9</v>
+      </c>
+    </row>
     <row r="10">
-      <c r="A10" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="7" t="s">
+      <c r="A10" s="35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="7" t="s">
+    <row r="23">
+      <c r="A23" s="6" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="27" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="27" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="35" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="27" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="35" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" s="28"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" s="36"/>
+        <v>22</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" s="28"/>
+      <c r="A26" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="28"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="36"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="28"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A14:B14"/>
     <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A26:B26"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -762,14 +819,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="15.671875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="16.08203125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="17.8359375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -793,123 +850,223 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="13" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="n" s="37">
-        <v>45722.499065578704</v>
+        <v>45726.664021157405</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="13" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="n" s="38">
-        <v>45722.52277570602</v>
+        <v>45726.66417347222</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="n" s="39">
+        <v>45726.66426537037</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="16" t="s">
-        <v>25</v>
+      <c r="A9" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C9" t="n" s="39">
-        <v>45723.53673673611</v>
+      <c r="C9" t="n" s="40">
+        <v>45726.686400185186</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="n" s="41">
+        <v>45726.716079641206</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="15" t="s">
-        <v>26</v>
+      <c r="A11" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>12</v>
       </c>
+      <c r="C11" t="n" s="42">
+        <v>45726.81258603009</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="15" t="s">
-        <v>26</v>
+      <c r="A12" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>13</v>
       </c>
+      <c r="C12" t="n" s="43">
+        <v>45726.81298815972</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="15" t="s">
-        <v>26</v>
+      <c r="A13" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>14</v>
       </c>
+      <c r="C13" t="n" s="44">
+        <v>45727.40067221065</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="15" t="s">
-        <v>26</v>
+      <c r="A14" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>15</v>
       </c>
+      <c r="C14" t="n" s="45">
+        <v>45727.636610775466</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="15" t="s">
-        <v>26</v>
+      <c r="A15" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>16</v>
       </c>
+      <c r="C15" t="n" s="46">
+        <v>45727.72950865741</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="n" s="47">
+        <v>45727.842371018516</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="n" s="48">
+        <v>45727.85509563657</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="n" s="49">
+        <v>45727.886434618056</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" t="n" s="50">
+        <v>45727.994603136576</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="n" s="51">
+        <v>45726.66380891204</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="n" s="52">
+        <v>45726.66895328704</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" t="n" s="40">
-        <v>45722.60010289352</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" t="n" s="41">
-        <v>45722.72724579861</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" t="n" s="42">
-        <v>45724.29490712963</v>
+      <c r="C25" t="n" s="53">
+        <v>45726.72855237268</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" t="n" s="54">
+        <v>45728.62516431713</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A5:C19"/>
+  <autoFilter ref="A5:C26"/>
   <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>

--- a/xlsx_files/spond(4).xlsx
+++ b/xlsx_files/spond(4).xlsx
@@ -10,27 +10,27 @@
     <sheet name="For import" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">'For import'!$A$5:$C$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">'For import'!$A$5:$C$18</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="34">
-  <si>
-    <t>Trening uke 11</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="28">
+  <si>
+    <t>Trening uke 13</t>
   </si>
   <si>
     <t>v.ps-2</t>
   </si>
   <si>
-    <t>søn. 16. mars 12:00 - 14:00</t>
+    <t>søn. 30. mars 12:00 - 14:00</t>
   </si>
   <si>
     <t>Bergen Golfsenter</t>
   </si>
   <si>
-    <t>Deltar (14)</t>
+    <t>Deltar (2)</t>
   </si>
   <si>
     <t/>
@@ -39,70 +39,52 @@
     <t>Navn</t>
   </si>
   <si>
-    <t>Steffen Synnevåg</t>
-  </si>
-  <si>
-    <t>Markus Grytten</t>
-  </si>
-  <si>
-    <t>Tobias Nilsen</t>
-  </si>
-  <si>
-    <t>Sander Bjørnsen</t>
-  </si>
-  <si>
-    <t>Oda Fossdal</t>
-  </si>
-  <si>
-    <t>Eskil Trosdahl</t>
-  </si>
-  <si>
-    <t>Birk Narvestad</t>
-  </si>
-  <si>
-    <t>Thomas Barth</t>
-  </si>
-  <si>
-    <t>sanne lunde</t>
-  </si>
-  <si>
-    <t>Mathias Hong</t>
-  </si>
-  <si>
-    <t>Hanne Folvik</t>
-  </si>
-  <si>
-    <t>Vera Ellingsen</t>
-  </si>
-  <si>
-    <t>Silje Louise Lindøe</t>
-  </si>
-  <si>
-    <t>Emilie Heggen</t>
-  </si>
-  <si>
-    <t>Ikke svart (1)</t>
+    <t>Sander Selnes</t>
+  </si>
+  <si>
+    <t>Ole Vaaler</t>
+  </si>
+  <si>
+    <t>Ikke svart (4)</t>
+  </si>
+  <si>
+    <t>Elle Wiig Eide</t>
   </si>
   <si>
     <t>Golf Bot</t>
   </si>
   <si>
-    <t>Kommer ikke (4)</t>
+    <t>Magne Skrede</t>
+  </si>
+  <si>
+    <t>Irina Karen Astorga</t>
+  </si>
+  <si>
+    <t>Kommer ikke (5)</t>
   </si>
   <si>
     <t>Begrunnelse</t>
   </si>
   <si>
-    <t>Vebjørn Molvik Nilsen</t>
-  </si>
-  <si>
-    <t>Ine Amalie Fjær</t>
-  </si>
-  <si>
-    <t>Julie Rjånes</t>
-  </si>
-  <si>
-    <t>Emily Skeie</t>
+    <t>Sara Sørholt</t>
+  </si>
+  <si>
+    <t>Har 10 kr på kortet….</t>
+  </si>
+  <si>
+    <t>Martin Arnesen</t>
+  </si>
+  <si>
+    <t>Øyvind Øyri</t>
+  </si>
+  <si>
+    <t>Håvard Hjelmeland</t>
+  </si>
+  <si>
+    <t>Spiller Meland på søndag</t>
+  </si>
+  <si>
+    <t>Brynjar Gjerding</t>
   </si>
   <si>
     <t>Status</t>
@@ -533,7 +515,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
       <alignment horizontal="left"/>
@@ -618,31 +600,20 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" zoomScale="125"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="20.3359375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.14453125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="18.375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="20.7265625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -686,123 +657,88 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="27" t="s">
+    <row r="10">
+      <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="35" t="s">
+      <c r="B10" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="27" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="27" t="s">
+    <row r="13">
+      <c r="A13" s="35" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="35" t="s">
+    <row r="14">
+      <c r="A14" s="27" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="27" t="s">
+    <row r="15">
+      <c r="A15" s="35" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="35" t="s">
+    <row r="17">
+      <c r="A17" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="27" t="s">
+      <c r="B17" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="35" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="27" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="35" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="27" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="36"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="28"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="35" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="6" t="s">
+      <c r="B22" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="23">
-      <c r="A23" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="27" t="s">
+      <c r="A23" s="27" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" s="28"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" s="36"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" s="28"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" s="36"/>
+      <c r="B23" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -810,8 +746,8 @@
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A17:B17"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -819,14 +755,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="15.671875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="17.8359375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="16.08203125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -850,223 +786,126 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="13" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="n" s="37">
-        <v>45726.664021157405</v>
+        <v>45743.54249212963</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="13" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="n" s="38">
-        <v>45726.66417347222</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="n" s="39">
-        <v>45726.66426537037</v>
+        <v>45744.52068015046</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="13" t="s">
-        <v>31</v>
+      <c r="A9" s="15" t="s">
+        <v>26</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C9" t="n" s="40">
-        <v>45726.686400185186</v>
-      </c>
     </row>
     <row r="10">
-      <c r="A10" s="13" t="s">
-        <v>31</v>
+      <c r="A10" s="15" t="s">
+        <v>26</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C10" t="n" s="41">
-        <v>45726.716079641206</v>
-      </c>
     </row>
     <row r="11">
-      <c r="A11" s="13" t="s">
-        <v>31</v>
+      <c r="A11" s="15" t="s">
+        <v>26</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C11" t="n" s="42">
-        <v>45726.81258603009</v>
-      </c>
     </row>
     <row r="12">
-      <c r="A12" s="13" t="s">
-        <v>31</v>
+      <c r="A12" s="15" t="s">
+        <v>26</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C12" t="n" s="43">
-        <v>45726.81298815972</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" t="n" s="44">
-        <v>45727.40067221065</v>
-      </c>
     </row>
     <row r="14">
-      <c r="A14" s="13" t="s">
-        <v>31</v>
+      <c r="A14" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" t="n" s="45">
-        <v>45727.636610775466</v>
+        <v>16</v>
+      </c>
+      <c r="C14" t="n" s="39">
+        <v>45743.54844510417</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="13" t="s">
-        <v>31</v>
+      <c r="A15" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" t="n" s="46">
-        <v>45727.72950865741</v>
+        <v>18</v>
+      </c>
+      <c r="C15" t="n" s="40">
+        <v>45743.63127760417</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="13" t="s">
-        <v>31</v>
+      <c r="A16" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" t="n" s="47">
-        <v>45727.842371018516</v>
+        <v>19</v>
+      </c>
+      <c r="C16" t="n" s="41">
+        <v>45743.69545252315</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="13" t="s">
-        <v>31</v>
+      <c r="A17" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" t="n" s="48">
-        <v>45727.85509563657</v>
+        <v>20</v>
+      </c>
+      <c r="C17" t="n" s="42">
+        <v>45744.342963993055</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="13" t="s">
-        <v>31</v>
+      <c r="A18" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" t="n" s="49">
-        <v>45727.886434618056</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" t="n" s="50">
-        <v>45727.994603136576</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="12" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="n" s="51">
-        <v>45726.66380891204</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="n" s="52">
-        <v>45726.66895328704</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" t="n" s="53">
-        <v>45726.72855237268</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" t="n" s="54">
-        <v>45728.62516431713</v>
+      <c r="C18" t="n" s="43">
+        <v>45745.78111435185</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A5:C26"/>
+  <autoFilter ref="A5:C18"/>
   <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>

--- a/xlsx_files/spond(4).xlsx
+++ b/xlsx_files/spond(4).xlsx
@@ -10,27 +10,27 @@
     <sheet name="For import" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">'For import'!$A$5:$C$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">'For import'!$A$5:$C$28</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="28">
-  <si>
-    <t>Trening uke 13</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="39">
+  <si>
+    <t>Trening uke 14</t>
   </si>
   <si>
     <t>v.ps-2</t>
   </si>
   <si>
-    <t>søn. 30. mars 12:00 - 14:00</t>
+    <t>søn. 6. april 12:00 - 14:00</t>
   </si>
   <si>
     <t>Bergen Golfsenter</t>
   </si>
   <si>
-    <t>Deltar (2)</t>
+    <t>Deltar (3)</t>
   </si>
   <si>
     <t/>
@@ -39,52 +39,85 @@
     <t>Navn</t>
   </si>
   <si>
+    <t>Martin Arnesen</t>
+  </si>
+  <si>
+    <t>sanne lunde</t>
+  </si>
+  <si>
+    <t>Hanne Folvik</t>
+  </si>
+  <si>
+    <t>Ikke svart (9)</t>
+  </si>
+  <si>
+    <t>Golf Bot</t>
+  </si>
+  <si>
+    <t>Birk Narvestad</t>
+  </si>
+  <si>
+    <t>Tobias Nilsen</t>
+  </si>
+  <si>
+    <t>Emilie Heggen</t>
+  </si>
+  <si>
+    <t>Eskil Trosdahl</t>
+  </si>
+  <si>
+    <t>Brynjar Gjerding</t>
+  </si>
+  <si>
+    <t>Elle Wiig Eide</t>
+  </si>
+  <si>
+    <t>Magne Skrede</t>
+  </si>
+  <si>
+    <t>Irina Karen Astorga</t>
+  </si>
+  <si>
+    <t>Kommer ikke (9)</t>
+  </si>
+  <si>
+    <t>Begrunnelse</t>
+  </si>
+  <si>
+    <t>Vebjørn Molvik Nilsen</t>
+  </si>
+  <si>
     <t>Sander Selnes</t>
   </si>
   <si>
+    <t>Mathias Hong</t>
+  </si>
+  <si>
+    <t>Håvard Hjelmeland</t>
+  </si>
+  <si>
+    <t>Skal på Brann kamp:(</t>
+  </si>
+  <si>
+    <t>Emily Skeie</t>
+  </si>
+  <si>
+    <t>Øyvind Øyri</t>
+  </si>
+  <si>
+    <t>Sara Sørholt</t>
+  </si>
+  <si>
+    <t>Kan ikke</t>
+  </si>
+  <si>
+    <t>Markus Grytten</t>
+  </si>
+  <si>
+    <t>Jobber</t>
+  </si>
+  <si>
     <t>Ole Vaaler</t>
-  </si>
-  <si>
-    <t>Ikke svart (4)</t>
-  </si>
-  <si>
-    <t>Elle Wiig Eide</t>
-  </si>
-  <si>
-    <t>Golf Bot</t>
-  </si>
-  <si>
-    <t>Magne Skrede</t>
-  </si>
-  <si>
-    <t>Irina Karen Astorga</t>
-  </si>
-  <si>
-    <t>Kommer ikke (5)</t>
-  </si>
-  <si>
-    <t>Begrunnelse</t>
-  </si>
-  <si>
-    <t>Sara Sørholt</t>
-  </si>
-  <si>
-    <t>Har 10 kr på kortet….</t>
-  </si>
-  <si>
-    <t>Martin Arnesen</t>
-  </si>
-  <si>
-    <t>Øyvind Øyri</t>
-  </si>
-  <si>
-    <t>Håvard Hjelmeland</t>
-  </si>
-  <si>
-    <t>Spiller Meland på søndag</t>
-  </si>
-  <si>
-    <t>Brynjar Gjerding</t>
   </si>
   <si>
     <t>Status</t>
@@ -515,7 +548,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
       <alignment horizontal="left"/>
@@ -600,20 +633,25 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" zoomScale="125"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="18.375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="20.7265625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="20.3359375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="17.88671875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -657,60 +695,56 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="6" t="s">
+    <row r="9">
+      <c r="A9" s="27" t="s">
         <v>9</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="27" t="s">
-        <v>10</v>
-      </c>
-    </row>
     <row r="13">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="27" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="35" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="27" t="s">
         <v>13</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" s="35" t="s">
+        <v>14</v>
+      </c>
+    </row>
     <row r="17">
-      <c r="A17" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>5</v>
+      <c r="A17" s="27" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>15</v>
+      <c r="A18" s="35" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="28" t="s">
         <v>17</v>
       </c>
     </row>
@@ -718,27 +752,87 @@
       <c r="A20" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="36"/>
     </row>
     <row r="21">
       <c r="A21" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="28"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="35" t="s">
+    </row>
+    <row r="23">
+      <c r="A23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="36" t="s">
+      <c r="B23" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="27" t="s">
+    <row r="25">
+      <c r="A25" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="28"/>
+      <c r="B25" s="28"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="36"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="28"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="36" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="28"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="36"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="36" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -746,8 +840,8 @@
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A23:B23"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -755,14 +849,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="15.671875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="16.08203125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="17.8359375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -786,48 +880,51 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="13" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="n" s="37">
-        <v>45743.54249212963</v>
+        <v>45748.836175717595</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="13" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="n" s="38">
-        <v>45744.52068015046</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>10</v>
+        <v>45749.4285925</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="n" s="39">
+        <v>45749.542748935186</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="15" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>11</v>
@@ -835,7 +932,7 @@
     </row>
     <row r="11">
       <c r="A11" s="15" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>12</v>
@@ -843,69 +940,161 @@
     </row>
     <row r="12">
       <c r="A12" s="15" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>13</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
     <row r="14">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" t="n" s="40">
+        <v>45748.66256253472</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" t="n" s="41">
+        <v>45748.836858310184</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="n" s="42">
+        <v>45748.909383321756</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="n" s="43">
+        <v>45748.9143793287</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" t="n" s="39">
-        <v>45743.54844510417</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" t="n" s="40">
-        <v>45743.63127760417</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" t="n" s="41">
-        <v>45743.69545252315</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" t="n" s="42">
-        <v>45744.342963993055</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" t="n" s="43">
-        <v>45745.78111435185</v>
+      <c r="C24" t="n" s="44">
+        <v>45748.941033587966</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" t="n" s="45">
+        <v>45748.964082349536</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" t="n" s="46">
+        <v>45749.3320758912</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" t="n" s="47">
+        <v>45749.40619369213</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" t="n" s="48">
+        <v>45750.82685628472</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A5:C18"/>
+  <autoFilter ref="A5:C28"/>
   <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>

--- a/xlsx_files/spond(4).xlsx
+++ b/xlsx_files/spond(4).xlsx
@@ -10,21 +10,21 @@
     <sheet name="For import" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">'For import'!$A$5:$C$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">'For import'!$A$5:$C$30</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="39">
-  <si>
-    <t>Trening uke 14</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="42">
+  <si>
+    <t>Trening uke 18</t>
   </si>
   <si>
     <t>v.ps-2</t>
   </si>
   <si>
-    <t>søn. 6. april 12:00 - 14:00</t>
+    <t>søn. 4. mai 12:00 - 14:00</t>
   </si>
   <si>
     <t>Bergen Golfsenter</t>
@@ -39,85 +39,94 @@
     <t>Navn</t>
   </si>
   <si>
+    <t>Sander Selnes</t>
+  </si>
+  <si>
+    <t>Tobias Nilsen</t>
+  </si>
+  <si>
+    <t>Mathias Hong</t>
+  </si>
+  <si>
+    <t>Ikke svart (5)</t>
+  </si>
+  <si>
+    <t>Irina Karen Astorga</t>
+  </si>
+  <si>
+    <t>Markus Grytten</t>
+  </si>
+  <si>
+    <t>Magne Skrede</t>
+  </si>
+  <si>
+    <t>Brynjar Gjerding</t>
+  </si>
+  <si>
+    <t>Golf Bot</t>
+  </si>
+  <si>
+    <t>Kommer ikke (15)</t>
+  </si>
+  <si>
+    <t>Begrunnelse</t>
+  </si>
+  <si>
+    <t>sanne lunde</t>
+  </si>
+  <si>
+    <t>Julie Rjånes</t>
+  </si>
+  <si>
+    <t>Sara Sørholt</t>
+  </si>
+  <si>
+    <t>🎓</t>
+  </si>
+  <si>
+    <t>Håvard Hjelmeland</t>
+  </si>
+  <si>
+    <t>Konfirmasjon</t>
+  </si>
+  <si>
+    <t>Vebjørn Molvik Nilsen</t>
+  </si>
+  <si>
+    <t>Elle Wiig Eide</t>
+  </si>
+  <si>
+    <t>Hanne Folvik</t>
+  </si>
+  <si>
+    <t>Hjemme</t>
+  </si>
+  <si>
+    <t>Øyvind Øyri</t>
+  </si>
+  <si>
     <t>Martin Arnesen</t>
   </si>
   <si>
-    <t>sanne lunde</t>
-  </si>
-  <si>
-    <t>Hanne Folvik</t>
-  </si>
-  <si>
-    <t>Ikke svart (9)</t>
-  </si>
-  <si>
-    <t>Golf Bot</t>
-  </si>
-  <si>
-    <t>Birk Narvestad</t>
-  </si>
-  <si>
-    <t>Tobias Nilsen</t>
+    <t>Ole Vaaler</t>
+  </si>
+  <si>
+    <t>Silje Louise Lindøe</t>
+  </si>
+  <si>
+    <t>Ine Amalie Fjær</t>
+  </si>
+  <si>
+    <t>Thomas Barth</t>
+  </si>
+  <si>
+    <t>I Oslo</t>
+  </si>
+  <si>
+    <t>Oda Fossdal</t>
   </si>
   <si>
     <t>Emilie Heggen</t>
-  </si>
-  <si>
-    <t>Eskil Trosdahl</t>
-  </si>
-  <si>
-    <t>Brynjar Gjerding</t>
-  </si>
-  <si>
-    <t>Elle Wiig Eide</t>
-  </si>
-  <si>
-    <t>Magne Skrede</t>
-  </si>
-  <si>
-    <t>Irina Karen Astorga</t>
-  </si>
-  <si>
-    <t>Kommer ikke (9)</t>
-  </si>
-  <si>
-    <t>Begrunnelse</t>
-  </si>
-  <si>
-    <t>Vebjørn Molvik Nilsen</t>
-  </si>
-  <si>
-    <t>Sander Selnes</t>
-  </si>
-  <si>
-    <t>Mathias Hong</t>
-  </si>
-  <si>
-    <t>Håvard Hjelmeland</t>
-  </si>
-  <si>
-    <t>Skal på Brann kamp:(</t>
-  </si>
-  <si>
-    <t>Emily Skeie</t>
-  </si>
-  <si>
-    <t>Øyvind Øyri</t>
-  </si>
-  <si>
-    <t>Sara Sørholt</t>
-  </si>
-  <si>
-    <t>Kan ikke</t>
-  </si>
-  <si>
-    <t>Markus Grytten</t>
-  </si>
-  <si>
-    <t>Jobber</t>
-  </si>
-  <si>
-    <t>Ole Vaaler</t>
   </si>
   <si>
     <t>Status</t>
@@ -548,7 +557,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
       <alignment horizontal="left"/>
@@ -638,20 +647,26 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" zoomScale="125"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="20.3359375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="17.88671875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.14453125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -738,101 +753,121 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="35" t="s">
+    <row r="19">
+      <c r="A19" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="27" t="s">
+      <c r="B19" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="35" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="28"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="35" t="s">
         <v>19</v>
       </c>
+      <c r="B22" s="36"/>
     </row>
     <row r="23">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>5</v>
+      <c r="B23" s="28" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>21</v>
+      <c r="A24" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="36" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="27" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B25" s="28"/>
     </row>
     <row r="26">
       <c r="A26" s="35" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B26" s="36"/>
     </row>
     <row r="27">
       <c r="A27" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="28"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" s="36" t="s">
-        <v>26</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="B28" s="36"/>
     </row>
     <row r="29">
       <c r="A29" s="27" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B29" s="28"/>
     </row>
     <row r="30">
       <c r="A30" s="35" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B30" s="36"/>
     </row>
     <row r="31">
       <c r="A31" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="28" t="s">
-        <v>30</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="B31" s="28"/>
     </row>
     <row r="32">
       <c r="A32" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="36" t="s">
         <v>32</v>
       </c>
+      <c r="B32" s="36"/>
     </row>
     <row r="33">
       <c r="A33" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="28"/>
+      <c r="B33" s="28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="36"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="28" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -841,7 +876,7 @@
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A19:B19"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -849,7 +884,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125"/>
   </sheetViews>
@@ -880,51 +915,51 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="13" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="n" s="37">
-        <v>45748.836175717595</v>
+        <v>45776.7350559375</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="13" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="n" s="38">
-        <v>45749.4285925</v>
+        <v>45779.45969697917</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="13" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="n" s="39">
-        <v>45749.542748935186</v>
+        <v>45779.66102707176</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="15" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>11</v>
@@ -932,7 +967,7 @@
     </row>
     <row r="11">
       <c r="A11" s="15" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>12</v>
@@ -940,7 +975,7 @@
     </row>
     <row r="12">
       <c r="A12" s="15" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>13</v>
@@ -948,7 +983,7 @@
     </row>
     <row r="13">
       <c r="A13" s="15" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>14</v>
@@ -956,145 +991,179 @@
     </row>
     <row r="14">
       <c r="A14" s="15" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
     <row r="16">
-      <c r="A16" s="15" t="s">
-        <v>37</v>
+      <c r="A16" s="14" t="s">
+        <v>41</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="C16" t="n" s="40">
+        <v>45776.743501585646</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="15" t="s">
-        <v>37</v>
+      <c r="A17" s="14" t="s">
+        <v>41</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="C17" t="n" s="41">
+        <v>45776.75928849537</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="15" t="s">
-        <v>37</v>
+      <c r="A18" s="14" t="s">
+        <v>41</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="C18" t="n" s="42">
+        <v>45776.76560133102</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="n" s="43">
+        <v>45777.446424456015</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="14" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" t="n" s="40">
-        <v>45748.66256253472</v>
+        <v>24</v>
+      </c>
+      <c r="C20" t="n" s="44">
+        <v>45777.44698127315</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="14" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" t="n" s="41">
-        <v>45748.836858310184</v>
+        <v>25</v>
+      </c>
+      <c r="C21" t="n" s="45">
+        <v>45777.449994131945</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="14" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" t="n" s="42">
-        <v>45748.909383321756</v>
+        <v>26</v>
+      </c>
+      <c r="C22" t="n" s="46">
+        <v>45777.45351103009</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="14" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="n" s="43">
-        <v>45748.9143793287</v>
+        <v>28</v>
+      </c>
+      <c r="C23" t="n" s="47">
+        <v>45777.4595934838</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="14" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" t="n" s="44">
-        <v>45748.941033587966</v>
+        <v>29</v>
+      </c>
+      <c r="C24" t="n" s="48">
+        <v>45778.059212025466</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="14" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" t="n" s="45">
-        <v>45748.964082349536</v>
+        <v>30</v>
+      </c>
+      <c r="C25" t="n" s="49">
+        <v>45778.63537607639</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="14" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" t="n" s="46">
-        <v>45749.3320758912</v>
+        <v>31</v>
+      </c>
+      <c r="C26" t="n" s="50">
+        <v>45778.69895979167</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="14" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" t="n" s="47">
-        <v>45749.40619369213</v>
+        <v>32</v>
+      </c>
+      <c r="C27" t="n" s="51">
+        <v>45778.73517594908</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="14" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C28" t="n" s="48">
-        <v>45750.82685628472</v>
+      <c r="C28" t="n" s="52">
+        <v>45778.82239274306</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" t="n" s="53">
+        <v>45778.82346151621</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" t="n" s="54">
+        <v>45779.470023298614</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A5:C28"/>
+  <autoFilter ref="A5:C30"/>
   <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>

--- a/xlsx_files/spond(4).xlsx
+++ b/xlsx_files/spond(4).xlsx
@@ -10,27 +10,27 @@
     <sheet name="For import" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">'For import'!$A$5:$C$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">'For import'!$A$5:$C$14</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="42">
-  <si>
-    <t>Trening uke 18</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="23">
+  <si>
+    <t>Trening uke 19</t>
   </si>
   <si>
     <t>v.ps-2</t>
   </si>
   <si>
-    <t>søn. 4. mai 12:00 - 14:00</t>
+    <t>søn. 11. mai 12:00 - 14:00</t>
   </si>
   <si>
     <t>Bergen Golfsenter</t>
   </si>
   <si>
-    <t>Deltar (3)</t>
+    <t>Deltar (5)</t>
   </si>
   <si>
     <t/>
@@ -39,94 +39,37 @@
     <t>Navn</t>
   </si>
   <si>
-    <t>Sander Selnes</t>
-  </si>
-  <si>
-    <t>Tobias Nilsen</t>
-  </si>
-  <si>
-    <t>Mathias Hong</t>
-  </si>
-  <si>
-    <t>Ikke svart (5)</t>
-  </si>
-  <si>
-    <t>Irina Karen Astorga</t>
-  </si>
-  <si>
-    <t>Markus Grytten</t>
-  </si>
-  <si>
-    <t>Magne Skrede</t>
-  </si>
-  <si>
-    <t>Brynjar Gjerding</t>
+    <t>Emily Skeie</t>
+  </si>
+  <si>
+    <t>Sander Bjørnsen</t>
+  </si>
+  <si>
+    <t>Steffen Synnevåg</t>
+  </si>
+  <si>
+    <t>Eskil Trosdahl</t>
+  </si>
+  <si>
+    <t>Birk Narvestad</t>
+  </si>
+  <si>
+    <t>Ikke svart (1)</t>
   </si>
   <si>
     <t>Golf Bot</t>
   </si>
   <si>
-    <t>Kommer ikke (15)</t>
+    <t>Kommer ikke (1)</t>
   </si>
   <si>
     <t>Begrunnelse</t>
   </si>
   <si>
-    <t>sanne lunde</t>
-  </si>
-  <si>
-    <t>Julie Rjånes</t>
-  </si>
-  <si>
-    <t>Sara Sørholt</t>
-  </si>
-  <si>
-    <t>🎓</t>
-  </si>
-  <si>
-    <t>Håvard Hjelmeland</t>
-  </si>
-  <si>
-    <t>Konfirmasjon</t>
-  </si>
-  <si>
-    <t>Vebjørn Molvik Nilsen</t>
-  </si>
-  <si>
-    <t>Elle Wiig Eide</t>
-  </si>
-  <si>
-    <t>Hanne Folvik</t>
-  </si>
-  <si>
-    <t>Hjemme</t>
-  </si>
-  <si>
-    <t>Øyvind Øyri</t>
-  </si>
-  <si>
-    <t>Martin Arnesen</t>
-  </si>
-  <si>
-    <t>Ole Vaaler</t>
-  </si>
-  <si>
-    <t>Silje Louise Lindøe</t>
-  </si>
-  <si>
-    <t>Ine Amalie Fjær</t>
-  </si>
-  <si>
-    <t>Thomas Barth</t>
-  </si>
-  <si>
-    <t>I Oslo</t>
-  </si>
-  <si>
-    <t>Oda Fossdal</t>
-  </si>
-  <si>
-    <t>Emilie Heggen</t>
+    <t>Vera Ellingsen</t>
+  </si>
+  <si>
+    <t>Spiller cup</t>
   </si>
   <si>
     <t>Status</t>
@@ -557,7 +500,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
       <alignment horizontal="left"/>
@@ -641,31 +584,19 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" zoomScale="125"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="20.3359375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="16.73828125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.14453125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -715,27 +646,27 @@
         <v>9</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" s="35" t="s">
+        <v>10</v>
+      </c>
+    </row>
     <row r="11">
-      <c r="A11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="6" t="s">
+    <row r="14">
+      <c r="A14" s="6" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="27" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="35" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="15">
@@ -743,130 +674,28 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="35" t="s">
+    <row r="17">
+      <c r="A17" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="27" t="s">
+      <c r="B17" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="5" t="s">
+      <c r="B19" s="28" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="28"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="36"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="28" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="36" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="28"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="36"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="36"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="28"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="36"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="28"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" s="36"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" s="28" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" s="36"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" s="28" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -875,8 +704,8 @@
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A17:B17"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -884,14 +713,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="15.671875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="17.8359375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="14.82421875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -915,255 +744,91 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="13" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="n" s="37">
-        <v>45776.7350559375</v>
+        <v>45782.54776378472</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="13" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="n" s="38">
-        <v>45779.45969697917</v>
+        <v>45782.566725902776</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="13" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="n" s="39">
-        <v>45779.66102707176</v>
+        <v>45782.713734363424</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="n" s="40">
+        <v>45782.82099880787</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="15" t="s">
-        <v>40</v>
+      <c r="A10" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>12</v>
+      <c r="C10" t="n" s="41">
+        <v>45782.8213196412</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="15" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
     <row r="14">
-      <c r="A14" s="15" t="s">
-        <v>40</v>
+      <c r="A14" s="14" t="s">
+        <v>22</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" t="n" s="40">
-        <v>45776.743501585646</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" t="n" s="41">
-        <v>45776.75928849537</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" t="n" s="42">
-        <v>45776.76560133102</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" t="n" s="43">
-        <v>45777.446424456015</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="n" s="44">
-        <v>45777.44698127315</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="n" s="45">
-        <v>45777.449994131945</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" t="n" s="46">
-        <v>45777.45351103009</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" t="n" s="47">
-        <v>45777.4595934838</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" t="n" s="48">
-        <v>45778.059212025466</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" t="n" s="49">
-        <v>45778.63537607639</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" t="n" s="50">
-        <v>45778.69895979167</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" t="n" s="51">
-        <v>45778.73517594908</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" t="n" s="52">
-        <v>45778.82239274306</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" t="n" s="53">
-        <v>45778.82346151621</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30" t="n" s="54">
-        <v>45779.470023298614</v>
+        <v>16</v>
+      </c>
+      <c r="C14" t="n" s="42">
+        <v>45782.55313289352</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A5:C30"/>
+  <autoFilter ref="A5:C14"/>
   <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
